--- a/project(training)-1.xlsx
+++ b/project(training)-1.xlsx
@@ -12,11 +12,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="pROZlulrANM8SELIynFKrr/K9VZDyNxua1NjKAke2zc="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="214">
   <si>
     <t>Functional Testing  Case Study - 1</t>
   </si>
@@ -28,7 +33,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">   
@@ -38,7 +43,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">The following website is given for Manual Testing to follow Agile practices and design and execute Test Cases and create Defect Report
@@ -72,7 +77,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t>Project Management Activity: Product Owner</t>
@@ -80,7 +85,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
@@ -96,7 +101,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Create  Task / Deliverables:
@@ -105,7 +110,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">1. List of User Stories &amp; Functions to test
@@ -185,7 +190,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">JIRA Task and Test Design : Dev Team
@@ -194,7 +199,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">1. Assign story point or time required to accomplish the story/Task
@@ -208,7 +213,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Create Task / Deliverables:
@@ -217,7 +222,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t>1. Test scenarios
@@ -232,7 +237,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t>Scrum Team activities : Dev Team</t>
@@ -240,7 +245,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
@@ -252,7 +257,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">)
@@ -262,7 +267,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t>1. Test Case design 
@@ -277,7 +282,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t>Scrum Team Activity : Scrum Team (PO, SM, DT)</t>
@@ -285,7 +290,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
@@ -297,7 +302,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t>Create Task / Deliverables:</t>
@@ -305,7 +310,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
@@ -318,7 +323,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t>Keep all the Deliverables on Git</t>
@@ -477,7 +482,7 @@
       <rPr>
         <rFont val="Candara"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Actual Result Iteration 2
@@ -498,7 +503,7 @@
       <rPr>
         <rFont val="Candara"/>
         <b/>
-        <color/>
+        <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Status
@@ -606,388 +611,269 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>User Age</t>
-  </si>
-  <si>
-    <t>The Registration page should be available</t>
-  </si>
-  <si>
-    <t>Verify the user age</t>
-  </si>
-  <si>
-    <t>1. Open the Browser</t>
-  </si>
-  <si>
-    <t>Browser: Edge</t>
-  </si>
-  <si>
-    <t>It should throw the Error Message "Invalid Age"</t>
-  </si>
-  <si>
-    <t>2.Navigate to the URL</t>
-  </si>
-  <si>
-    <t>URL: www.abc.com</t>
-  </si>
-  <si>
-    <t>3. Click on Register Button</t>
-  </si>
-  <si>
-    <t>age: 17</t>
-  </si>
-  <si>
-    <t>4. Enter the age</t>
-  </si>
-  <si>
-    <t>5. Click on Submit Button</t>
+    <t>Verify search accuracy for specific technical hardware specs.</t>
+  </si>
+  <si>
+    <t>User is on the Amazon Homepage</t>
+  </si>
+  <si>
+    <t>Valid internet connection and Search Bar is visible.</t>
+  </si>
+  <si>
+    <t>1. Open the browser.
+2. Navigate to www.amazon.com.
+3. Click on the Search Bar.
+4. Type "i5 8GB/1TB laptops".
+5. Click the magnifying glass icon (Search).</t>
+  </si>
+  <si>
+    <t>Search Term: "i5 8GB/1TB laptops"</t>
+  </si>
+  <si>
+    <t>Search results display laptops matching the exact processor, RAM, and Storage specs.</t>
   </si>
   <si>
     <t>TC002</t>
   </si>
   <si>
-    <t>It should proceed accept.</t>
-  </si>
-  <si>
-    <t>age: 18</t>
+    <t>Verify that search results can be filtered by a specific category.</t>
+  </si>
+  <si>
+    <t>User has performed a general search.</t>
+  </si>
+  <si>
+    <t>Sidebar filters are loaded and clickable.</t>
+  </si>
+  <si>
+    <t>1. Perform a search for any product.
+2. Scroll down to the sidebar on the left.
+3. Locate the "Department" or "Category" section.
+4. Click the checkbox for "Computers &amp; Accessories".
+5. Wait for the page to refresh.</t>
+  </si>
+  <si>
+    <t>Category: Computers &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Product list refreshes to show only items within the selected category.</t>
   </si>
   <si>
     <t>TC003</t>
   </si>
   <si>
-    <t>age: 19</t>
+    <t>Verify that a user can save an item for future consideration.</t>
+  </si>
+  <si>
+    <t>User is logged in and on a Product Detail Page.</t>
+  </si>
+  <si>
+    <t>Product is "In Stock" and Wishlist service is active.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Dell XPS 15 product page.
+2. Click the "Add to List" button (usually located on the right side).
+3. Click on "View Your List" in the confirmation popup.
+4. Verify the item is listed.</t>
+  </si>
+  <si>
+    <t>Product: Dell XPS 15</t>
+  </si>
+  <si>
+    <t>Item is added to the wishlist and is visible with correct pricing.</t>
   </si>
   <si>
     <t>TC004</t>
   </si>
   <si>
-    <t>age: 98</t>
+    <t>Verify automatic removal from Wishlist when moving to Cart.</t>
+  </si>
+  <si>
+    <t>Item exists in user's Wishlist.</t>
+  </si>
+  <si>
+    <t>User has a stable session and "Move to Cart" button is active.</t>
+  </si>
+  <si>
+    <t>1. Click on "Account &amp; Lists".
+2. Click on "Your Lists".
+3. Locate the item with ID 9982.
+4. Click the "Add to Cart" button next to that item.
+5. Click on the Cart icon in the header.</t>
+  </si>
+  <si>
+    <t>Wishlist Item ID: 9982</t>
+  </si>
+  <si>
+    <t>Item moves to Cart; it is automatically deleted from the Wishlist.</t>
   </si>
   <si>
     <t>TC005</t>
   </si>
   <si>
-    <t>age: 99</t>
+    <t>Verify real-time UI update of the cart count badge.</t>
+  </si>
+  <si>
+    <t>User is on any Product page.</t>
+  </si>
+  <si>
+    <t>Product is available for purchase.</t>
+  </si>
+  <si>
+    <t>1. Navigate to any product detail page (e.g., Wireless Mouse).
+2. Click the "Add to Cart" button.
+3. Look at the Cart icon in the top right corner of the header.
+4. Observe the number displayed on the badge.</t>
+  </si>
+  <si>
+    <t>Product: Wireless Mouse</t>
+  </si>
+  <si>
+    <t>The numerical badge on the Cart icon increases by 1.</t>
   </si>
   <si>
     <t>TC006</t>
   </si>
   <si>
-    <t>age: 101</t>
+    <t>Verify address selection and confirmation during checkout.</t>
+  </si>
+  <si>
+    <t>User is at the "Select Address" checkout stage.</t>
+  </si>
+  <si>
+    <t>Multiple addresses are saved in the user profile.</t>
+  </si>
+  <si>
+    <t>1. Click the Cart icon.
+2. Click "Proceed to Checkout".
+3. Navigate to the "Select a shipping address" section.
+4. Click the radio button next to "456 Tech Park, CA".
+5. Click the "Use this address" button.</t>
+  </si>
+  <si>
+    <t>Address: 456 Tech Park, CA</t>
+  </si>
+  <si>
+    <t>Selected address is highlighted and set as the destination for this order.</t>
   </si>
   <si>
     <t>TC007</t>
   </si>
   <si>
-    <t>Student Marks</t>
-  </si>
-  <si>
-    <t>Student should have valid credentials</t>
-  </si>
-  <si>
-    <t>Verify failing score boundary (Invalid)</t>
-  </si>
-  <si>
-    <t>Browser: Edge, URL: www.abc.com, marks: 59</t>
-  </si>
-  <si>
-    <t>It should throw the Error Message "Fail"</t>
-  </si>
-  <si>
-    <t>3. Enter Marks</t>
-  </si>
-  <si>
-    <t>4.Click on Submit Button</t>
+    <t>Verify secure transaction via successful OTP validation.</t>
+  </si>
+  <si>
+    <t>User is on the Payment Gateway 3D-Secure page.</t>
+  </si>
+  <si>
+    <t>SMS gateway is functional; OTP is received within 60s.</t>
+  </si>
+  <si>
+    <t>1. Enter credit card details on the payment page.
+2. Click "Pay" to trigger the 3D-Secure window.
+3. Type "556677" into the OTP text field.
+4. Click the "Submit" button.</t>
+  </si>
+  <si>
+    <t>OTP: 556677 (Valid)</t>
+  </si>
+  <si>
+    <t>Payment is authorized; User is redirected to the success page.</t>
   </si>
   <si>
     <t>TC008</t>
   </si>
   <si>
-    <t>Verify valid passing score (Valid)</t>
-  </si>
-  <si>
-    <t>Browser: Edge, URL: www.abc.com, marks: 61</t>
-  </si>
-  <si>
-    <t>The system should display "Pass" status</t>
+    <t>Verify system behavior when invalid payment info is entered.</t>
+  </si>
+  <si>
+    <t>User is on the Payment Gateway.</t>
+  </si>
+  <si>
+    <t>Payment gateway validation is active.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Payment Method screen.
+2. Enter a valid 16-digit card number.
+3. Enter "000" in the CVV text box.
+4. Click the "Use this payment method" or "Pay" button.</t>
+  </si>
+  <si>
+    <t>CVV: 000 (Incorrect)</t>
+  </si>
+  <si>
+    <t>System displays "Invalid payment details" error; user stays on payment page.</t>
   </si>
   <si>
     <t>TC009</t>
   </si>
   <si>
-    <t>Verify score above maximum limit (Invalid)</t>
-  </si>
-  <si>
-    <t>Browser: Edge, URL: www.abc.com, marks: 101</t>
-  </si>
-  <si>
-    <t>It should throw the Error Message "Invalid Marks"</t>
+    <t>Verify on-screen confirmation and Order ID generation.</t>
+  </si>
+  <si>
+    <t>Payment has been successfully processed.</t>
+  </si>
+  <si>
+    <t>Transaction ID is generated by the backend.</t>
+  </si>
+  <si>
+    <t>1. Complete the payment step.
+2. Wait for the screen to redirect automatically.
+3. Read the header text on the landing page.
+4. Locate the alphanumeric Order ID.</t>
+  </si>
+  <si>
+    <t>Order Total: $1,200</t>
+  </si>
+  <si>
+    <t>Screen displays "Your Order has been successfully placed" and a valid Order ID.</t>
   </si>
   <si>
     <t>TC010</t>
   </si>
   <si>
-    <t>Salary calculation</t>
-  </si>
-  <si>
-    <t>Payroll system is online</t>
-  </si>
-  <si>
-    <t>Verify salary for age 24</t>
-  </si>
-  <si>
-    <t>1.Open Payroll Portal</t>
-  </si>
-  <si>
-    <t>Browser: Edge, URL: www.abc.com, age:24</t>
-  </si>
-  <si>
-    <t>Salary should be calculated as Rs. 15,000</t>
-  </si>
-  <si>
-    <t>2. Input Driver Age</t>
-  </si>
-  <si>
-    <t>3. Click Calculate</t>
+    <t>Verify receipt of confirmation through external channels.</t>
+  </si>
+  <si>
+    <t>Order is placed successfully.</t>
+  </si>
+  <si>
+    <t>Notification services (SMTP/SMS) are online.</t>
+  </si>
+  <si>
+    <t>1. Place a successful order.
+2. Open a new tab and go to your email (e.g., Gmail).
+3. Open the email from "Amazon Orders".
+4. Check your mobile phone for an SMS notification.</t>
+  </si>
+  <si>
+    <t>User: test_user@mail.com</t>
+  </si>
+  <si>
+    <t>Confirmation email and SMS are received containing the Order ID and details.</t>
   </si>
   <si>
     <t>TC011</t>
   </si>
   <si>
-    <t>Verify salary for age 25</t>
-  </si>
-  <si>
-    <t>Browser: Edge, URL: www.abc.com, age:25</t>
-  </si>
-  <si>
-    <t>TC012</t>
-  </si>
-  <si>
-    <t>Verify salary for age 26</t>
-  </si>
-  <si>
-    <t>Browser: Edge, URL: www.abc.com, age:26</t>
-  </si>
-  <si>
-    <t>Salary should be calculated as Rs. 16,500</t>
-  </si>
-  <si>
-    <t>TC013</t>
-  </si>
-  <si>
-    <t>Verify salary for age 64</t>
-  </si>
-  <si>
-    <t>Browser: Edge, URL: www.abc.com, age:64</t>
-  </si>
-  <si>
-    <t>TC014</t>
-  </si>
-  <si>
-    <t>Verify salary for age 65</t>
-  </si>
-  <si>
-    <t>Browser: Edge, URL: www.abc.com, age:65</t>
-  </si>
-  <si>
-    <t>Salary should be calculated as Rs. 18,750</t>
-  </si>
-  <si>
-    <t>TC015</t>
-  </si>
-  <si>
-    <t>Verify salary for age 66</t>
-  </si>
-  <si>
-    <t>Browser: Edge, URL: www.abc.com, age:66</t>
-  </si>
-  <si>
-    <t>TC016</t>
-  </si>
-  <si>
-    <t>Discount Eligibility</t>
-  </si>
-  <si>
-    <t>Shopping cart has items</t>
-  </si>
-  <si>
-    <t>Verify Valid Range 1</t>
-  </si>
-  <si>
-    <t>1. Enter customer age</t>
-  </si>
-  <si>
-    <t>age: 0-7</t>
-  </si>
-  <si>
-    <t>Discount should be applied successfully</t>
-  </si>
-  <si>
-    <t>2. Check Discount Eligibility</t>
-  </si>
-  <si>
-    <t>TC017</t>
-  </si>
-  <si>
-    <t>Verify Invalid Range 1</t>
-  </si>
-  <si>
-    <t>age: 8-35</t>
-  </si>
-  <si>
-    <t>No discount should be applied</t>
-  </si>
-  <si>
-    <t>TC018</t>
-  </si>
-  <si>
-    <t>Verify Valid Range 2</t>
-  </si>
-  <si>
-    <t>age: 36-44</t>
-  </si>
-  <si>
-    <t>TC019</t>
-  </si>
-  <si>
-    <t>Verify Invalid Range 2</t>
-  </si>
-  <si>
-    <t>age: 45-60</t>
-  </si>
-  <si>
-    <t>TC020</t>
-  </si>
-  <si>
-    <t>Min Order &amp; Discount</t>
-  </si>
-  <si>
-    <t>Product is in stock</t>
-  </si>
-  <si>
-    <t>Verify order boundary (n-1)</t>
-  </si>
-  <si>
-    <t>1. Enter quantity</t>
-  </si>
-  <si>
-    <t>quantity: 4</t>
-  </si>
-  <si>
-    <t>System should reject the order (Min 5)</t>
-  </si>
-  <si>
-    <t>2. Click Add to Cart</t>
-  </si>
-  <si>
-    <t>TC021</t>
-  </si>
-  <si>
-    <t>Verify order boundary (n)</t>
-  </si>
-  <si>
-    <t>quantity: 5</t>
-  </si>
-  <si>
-    <t>Order accepted at standard price</t>
-  </si>
-  <si>
-    <t>TC022</t>
-  </si>
-  <si>
-    <t>Verify order boundary (n+1)</t>
-  </si>
-  <si>
-    <t>quantity: 6</t>
-  </si>
-  <si>
-    <t>TC023</t>
-  </si>
-  <si>
-    <t>Verify discount boundary (m-1)</t>
-  </si>
-  <si>
-    <t>quantity: 99</t>
-  </si>
-  <si>
-    <t>TC024</t>
-  </si>
-  <si>
-    <t>Verify discount boundary (m)</t>
-  </si>
-  <si>
-    <t>quantity: 100</t>
-  </si>
-  <si>
-    <t>Order accepted with 20% discount</t>
-  </si>
-  <si>
-    <t>TC025</t>
-  </si>
-  <si>
-    <t>Verify discount boundary (m+1)</t>
-  </si>
-  <si>
-    <t>quantity: 101</t>
-  </si>
-  <si>
-    <t>TC026</t>
-  </si>
-  <si>
-    <t>Bonus Calculation</t>
-  </si>
-  <si>
-    <t>Employee records loaded</t>
-  </si>
-  <si>
-    <t>Verify Valid Partition 1</t>
-  </si>
-  <si>
-    <t>1. Enter service years</t>
-  </si>
-  <si>
-    <t>0-2 years</t>
-  </si>
-  <si>
-    <t>Bonus calculated as 0%</t>
-  </si>
-  <si>
-    <t>2. Click Calculate Bonus</t>
-  </si>
-  <si>
-    <t>TC027</t>
-  </si>
-  <si>
-    <t>Verify Valid Partition 2</t>
-  </si>
-  <si>
-    <t>2-5 years</t>
-  </si>
-  <si>
-    <t>Bonus calculated as 10%</t>
-  </si>
-  <si>
-    <t>TC028</t>
-  </si>
-  <si>
-    <t>Verify Valid Partition 3</t>
-  </si>
-  <si>
-    <t>5-10 years</t>
-  </si>
-  <si>
-    <t>Bonus calculated as 25%</t>
-  </si>
-  <si>
-    <t>TC029</t>
-  </si>
-  <si>
-    <t>Verify Valid Partition 4</t>
-  </si>
-  <si>
-    <t>More than 10 years</t>
-  </si>
-  <si>
-    <t>Bonus calculated as 35%</t>
+    <t>Verify functionality of the logistics tracking link.</t>
+  </si>
+  <si>
+    <t>Order status updated to Shipped in backend.</t>
+  </si>
+  <si>
+    <t>Tracking API from the carrier is integrated.</t>
+  </si>
+  <si>
+    <t>1. Open the Shipping Confirmation email.
+2. Locate the "Track your package" button or link.
+3. Click the link.
+4. Observe the external carrier website (FedEx) that opens.</t>
+  </si>
+  <si>
+    <t>Tracking URL: trackingURLxyz</t>
+  </si>
+  <si>
+    <t>Link opens the carrier page showing the real-time status of the package.</t>
   </si>
   <si>
     <t>Defect Id.</t>
@@ -1032,7 +918,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>1.</t>
@@ -1040,7 +926,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1048,7 +934,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Java Case study completion individually</t>
@@ -1058,7 +944,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>1.</t>
@@ -1066,7 +952,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1074,7 +960,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Case Study implementation code</t>
@@ -1084,7 +970,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>2.</t>
@@ -1092,7 +978,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1100,7 +986,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Identify the Manual Test Cases that you want to automate.</t>
@@ -1110,7 +996,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>2.</t>
@@ -1118,7 +1004,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1126,7 +1012,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Test Cases: Positive &amp; Negative</t>
@@ -1136,7 +1022,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3.</t>
@@ -1144,7 +1030,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1152,7 +1038,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Plan the flow of application that you want to test using automation test scripts.</t>
@@ -1162,7 +1048,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3.</t>
@@ -1170,7 +1056,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1178,7 +1064,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Application Flows: Positive &amp; Negative.</t>
@@ -1188,7 +1074,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>4.</t>
@@ -1196,7 +1082,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1204,7 +1090,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Create a Maven Project - Associate required libraries with the Maven Project</t>
@@ -1214,7 +1100,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>4.</t>
@@ -1222,7 +1108,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1230,7 +1116,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Creation of project structure</t>
@@ -1240,7 +1126,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>5.</t>
@@ -1248,7 +1134,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1256,7 +1142,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Configure required dependencies like Selenium WebDriver, TestNG / Junit, Cucumber etc. in POM.xml</t>
@@ -1266,7 +1152,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>1.</t>
@@ -1274,7 +1160,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1282,7 +1168,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Create the required Feature files with relevant scenarios (User Stories) using Gherkin.</t>
@@ -1292,7 +1178,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>1.</t>
@@ -1300,7 +1186,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1308,7 +1194,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>List of Feature Files :</t>
@@ -1318,7 +1204,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>·</t>
@@ -1326,7 +1212,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1334,7 +1220,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Use Scenario Outline &amp; Examples to implement Parametrization in Feature File</t>
@@ -1344,7 +1230,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>2.</t>
@@ -1352,7 +1238,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1360,7 +1246,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>List of Test Cases :</t>
@@ -1370,7 +1256,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>2.</t>
@@ -1378,7 +1264,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1386,7 +1272,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Implement Page Factory or Object Repository (XML/Property File) to identify and store all the web elements.</t>
@@ -1396,7 +1282,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3.</t>
@@ -1404,7 +1290,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1412,7 +1298,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Prioritization of tests :</t>
@@ -1422,7 +1308,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>·</t>
@@ -1430,7 +1316,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1438,7 +1324,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Use all types of Locators</t>
@@ -1448,7 +1334,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>4.</t>
@@ -1456,7 +1342,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1464,7 +1350,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Parametrization Sample Data :</t>
@@ -1474,7 +1360,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>·</t>
@@ -1482,7 +1368,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1490,7 +1376,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Ensure appropriate usage of Selenium Web Driver API     objects and import statements</t>
@@ -1500,7 +1386,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>5.</t>
@@ -1508,7 +1394,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1516,7 +1402,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Any Test Suite?</t>
@@ -1526,7 +1412,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3.</t>
@@ -1534,7 +1420,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1542,7 +1428,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Implement parametrization using apache POI</t>
@@ -1552,7 +1438,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>6.</t>
@@ -1560,7 +1446,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1568,7 +1454,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Test Runner class Parameters</t>
@@ -1578,7 +1464,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>4.</t>
@@ -1586,7 +1472,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1594,7 +1480,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Implement TestNG for generating reports and XML file for parallel execution of test suite</t>
@@ -1604,7 +1490,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>7.</t>
@@ -1612,7 +1498,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1620,7 +1506,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Report File Names</t>
@@ -1630,7 +1516,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>5.</t>
@@ -1638,7 +1524,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1646,7 +1532,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Design the test runner class</t>
@@ -1656,7 +1542,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>1.</t>
@@ -1664,7 +1550,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1672,7 +1558,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Generate Step Definitions and write the Tests addressing all the functional requirements.</t>
@@ -1682,7 +1568,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>1.</t>
@@ -1690,7 +1576,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1698,7 +1584,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Detail Test Script in Step Definitions</t>
@@ -1708,7 +1594,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>·</t>
@@ -1716,7 +1602,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1724,7 +1610,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Implement  Assertions/Verifications using TestNG</t>
@@ -1734,7 +1620,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>2.</t>
@@ -1742,7 +1628,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1750,7 +1636,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Feature File- Test Case – PF/OR collation in an Excel sheet</t>
@@ -1760,7 +1646,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>·</t>
@@ -1768,7 +1654,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1776,7 +1662,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Use appropriate wait statements</t>
@@ -1786,7 +1672,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>·</t>
@@ -1794,7 +1680,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1802,7 +1688,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Handle new windows, popup’s, navigations</t>
@@ -1812,7 +1698,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>2.</t>
@@ -1820,7 +1706,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1828,7 +1714,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Ensure implementation of good programing practices</t>
@@ -1838,7 +1724,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>·</t>
@@ -1846,7 +1732,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1854,7 +1740,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Variable, Function &amp; procedure naming convention</t>
@@ -1864,7 +1750,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>·</t>
@@ -1872,7 +1758,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1880,7 +1766,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Usage of comments</t>
@@ -1890,7 +1776,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>·</t>
@@ -1898,7 +1784,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1906,7 +1792,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Code Indentation</t>
@@ -1916,7 +1802,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>1.</t>
@@ -1924,7 +1810,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1932,7 +1818,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Generate Traceability Matrix based on Feature File User Stories, Test Scripts and Defects</t>
@@ -1942,7 +1828,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>1.</t>
@@ -1950,7 +1836,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1958,7 +1844,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Traceability Matrix</t>
@@ -1968,7 +1854,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>2.</t>
@@ -1976,7 +1862,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -1984,7 +1870,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Finally generate TestNG/XML Test report mentioning pass/fail status.</t>
@@ -1994,7 +1880,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>2.</t>
@@ -2002,7 +1888,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -2010,7 +1896,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Test Reports</t>
@@ -2020,7 +1906,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3.</t>
@@ -2028,7 +1914,7 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color/>
+        <color theme="1"/>
         <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">       </t>
@@ -2036,7 +1922,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>Keep all code in Git repository</t>
@@ -2068,46 +1954,46 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
-      <color/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Candara"/>
     </font>
     <font/>
     <font>
       <b/>
       <sz val="11.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="14.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="12.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -2133,7 +2019,7 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2144,7 +2030,7 @@
     <font>
       <u/>
       <sz val="11.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -2165,7 +2051,7 @@
     <font>
       <b/>
       <sz val="10.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Candara"/>
     </font>
     <font>
@@ -2175,18 +2061,13 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Candara"/>
     </font>
     <font>
       <sz val="10.0"/>
-      <color/>
+      <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color/>
-      <name val="Google Sans Text"/>
     </font>
     <font>
       <b/>
@@ -2518,7 +2399,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2639,8 +2520,14 @@
     <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
@@ -2649,6 +2536,12 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2660,24 +2553,21 @@
     <xf borderId="12" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="9" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="13" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="16" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2867,21 +2757,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2898,7 +2788,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2946,8 +2836,6 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -2959,12 +2847,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.0"/>
     <col customWidth="1" min="2" max="2" width="60.0"/>
-    <col customWidth="1" min="3" max="3" width="105.57"/>
-    <col customWidth="1" min="4" max="23" width="7.57"/>
+    <col customWidth="1" min="3" max="3" width="105.63"/>
+    <col customWidth="1" min="4" max="23" width="7.63"/>
+    <col customWidth="1" min="24" max="26" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1">
@@ -3696,6 +3585,786 @@
     <row r="220" ht="15.75" customHeight="1">
       <c r="B220" s="18"/>
     </row>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
@@ -3717,11 +4386,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.43"/>
-    <col customWidth="1" min="2" max="2" width="50.57"/>
-    <col customWidth="1" min="3" max="11" width="7.57"/>
+    <col customWidth="1" min="1" max="1" width="10.38"/>
+    <col customWidth="1" min="2" max="2" width="50.63"/>
+    <col customWidth="1" min="3" max="11" width="7.63"/>
+    <col customWidth="1" min="12" max="26" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4161,6 +4831,774 @@
     <row r="230" ht="15.75" customHeight="1"/>
     <row r="231" ht="15.75" customHeight="1"/>
     <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4177,15 +5615,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.57"/>
+    <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="16.0"/>
-    <col customWidth="1" min="3" max="3" width="29.43"/>
-    <col customWidth="1" min="4" max="4" width="18.86"/>
-    <col customWidth="1" min="5" max="5" width="14.29"/>
-    <col customWidth="1" min="6" max="6" width="54.86"/>
-    <col customWidth="1" min="7" max="26" width="7.57"/>
+    <col customWidth="1" min="3" max="3" width="29.38"/>
+    <col customWidth="1" min="4" max="4" width="18.88"/>
+    <col customWidth="1" min="5" max="5" width="14.25"/>
+    <col customWidth="1" min="6" max="6" width="54.88"/>
+    <col customWidth="1" min="7" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1">
@@ -4447,6 +5885,786 @@
     <row r="218" ht="15.75" customHeight="1"/>
     <row r="219" ht="15.75" customHeight="1"/>
     <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4468,22 +6686,22 @@
       <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.86"/>
-    <col customWidth="1" min="2" max="2" width="29.14"/>
+    <col customWidth="1" min="1" max="1" width="25.88"/>
+    <col customWidth="1" min="2" max="2" width="29.13"/>
     <col customWidth="1" min="3" max="3" width="45.0"/>
     <col customWidth="1" min="4" max="4" width="42.0"/>
-    <col customWidth="1" min="5" max="5" width="48.0"/>
+    <col customWidth="1" min="5" max="5" width="49.38"/>
     <col customWidth="1" min="6" max="6" width="41.0"/>
-    <col customWidth="1" min="7" max="7" width="78.57"/>
-    <col customWidth="1" min="8" max="8" width="17.14"/>
-    <col customWidth="1" min="9" max="9" width="12.57"/>
-    <col customWidth="1" min="10" max="10" width="10.43"/>
-    <col customWidth="1" min="11" max="11" width="14.29"/>
-    <col customWidth="1" min="12" max="12" width="9.43"/>
+    <col customWidth="1" min="7" max="7" width="78.63"/>
+    <col customWidth="1" min="8" max="8" width="17.13"/>
+    <col customWidth="1" min="9" max="9" width="12.63"/>
+    <col customWidth="1" min="10" max="10" width="10.38"/>
+    <col customWidth="1" min="11" max="11" width="14.25"/>
+    <col customWidth="1" min="12" max="12" width="9.38"/>
     <col customWidth="1" min="13" max="13" width="13.0"/>
-    <col customWidth="1" min="14" max="26" width="7.57"/>
+    <col customWidth="1" min="14" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -4594,1341 +6812,947 @@
       <c r="A3" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="48" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="48"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="48"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="48"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>93</v>
+      <c r="D13" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="48"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="48"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>93</v>
+        <v>100</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="48"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="48"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="48"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="48"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>85</v>
+        <v>114</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="48"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="48"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>108</v>
+      <c r="A33" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="52" t="s">
-        <v>114</v>
+      <c r="A37" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="56" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" s="52" t="s">
-        <v>118</v>
+      <c r="A41" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="52" t="s">
-        <v>125</v>
+      <c r="A45" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="56" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="52" t="s">
-        <v>125</v>
+      <c r="A48" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="56" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="G51" s="52" t="s">
-        <v>134</v>
-      </c>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="52" t="s">
-        <v>134</v>
-      </c>
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="G57" s="52" t="s">
-        <v>141</v>
-      </c>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E60" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" s="52" t="s">
-        <v>141</v>
-      </c>
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="G63" s="55" t="s">
-        <v>151</v>
-      </c>
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B65" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="G65" s="55" t="s">
-        <v>156</v>
-      </c>
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="F67" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" s="55" t="s">
-        <v>151</v>
-      </c>
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="F69" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="G69" s="55" t="s">
-        <v>156</v>
-      </c>
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="B71" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D71" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F71" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="G71" s="55" t="s">
-        <v>169</v>
-      </c>
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D73" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="E73" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="G73" s="55" t="s">
-        <v>174</v>
-      </c>
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="B75" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D75" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F75" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="G75" s="55" t="s">
-        <v>174</v>
-      </c>
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="B77" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D77" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="E77" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F77" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="G77" s="55" t="s">
-        <v>174</v>
-      </c>
+      <c r="A77" s="55"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="B79" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="E79" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F79" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="G79" s="55" t="s">
-        <v>184</v>
-      </c>
+      <c r="A79" s="55"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="B81" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E81" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F81" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="G81" s="55" t="s">
-        <v>184</v>
-      </c>
+      <c r="A81" s="55"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="50"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B83" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="D83" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="E83" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="F83" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="G83" s="55" t="s">
-        <v>194</v>
-      </c>
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="B85" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="D85" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="E85" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="F85" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="G85" s="55" t="s">
-        <v>199</v>
-      </c>
+      <c r="A85" s="55"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="C87" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="D87" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="F87" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="G87" s="55" t="s">
-        <v>203</v>
-      </c>
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="50"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="B89" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="C89" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="D89" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="E89" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="G89" s="55" t="s">
-        <v>207</v>
-      </c>
+      <c r="A89" s="55"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="50"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
     </row>
     <row r="91" ht="15.75" customHeight="1"/>
     <row r="92" ht="15.75" customHeight="1"/>
@@ -6130,6 +7954,716 @@
     <row r="288" ht="15.75" customHeight="1"/>
     <row r="289" ht="15.75" customHeight="1"/>
     <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6146,42 +8680,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.57"/>
-    <col customWidth="1" min="2" max="2" width="15.57"/>
-    <col customWidth="1" min="3" max="3" width="30.43"/>
-    <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="5" width="17.57"/>
-    <col customWidth="1" min="6" max="6" width="18.14"/>
-    <col customWidth="1" min="7" max="8" width="7.57"/>
-    <col customWidth="1" min="9" max="11" width="12.57"/>
+    <col customWidth="1" min="1" max="1" width="12.63"/>
+    <col customWidth="1" min="2" max="2" width="15.63"/>
+    <col customWidth="1" min="3" max="3" width="30.38"/>
+    <col customWidth="1" min="4" max="4" width="16.13"/>
+    <col customWidth="1" min="5" max="5" width="17.63"/>
+    <col customWidth="1" min="6" max="6" width="18.13"/>
+    <col customWidth="1" min="7" max="8" width="7.63"/>
+    <col customWidth="1" min="9" max="26" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>213</v>
+      <c r="A1" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>161</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6386,6 +8920,786 @@
     <row r="218" ht="15.75" customHeight="1"/>
     <row r="219" ht="15.75" customHeight="1"/>
     <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6402,260 +9716,260 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.71"/>
-    <col customWidth="1" min="2" max="2" width="47.57"/>
-    <col customWidth="1" min="3" max="3" width="47.29"/>
-    <col customWidth="1" min="4" max="6" width="7.57"/>
-    <col customWidth="1" min="7" max="11" width="12.57"/>
+    <col customWidth="1" min="1" max="1" width="11.75"/>
+    <col customWidth="1" min="2" max="2" width="47.63"/>
+    <col customWidth="1" min="3" max="3" width="47.25"/>
+    <col customWidth="1" min="4" max="6" width="7.63"/>
+    <col customWidth="1" min="7" max="26" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="A1" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2">
-      <c r="A2" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>219</v>
+      <c r="A2" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>222</v>
+      <c r="A3" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>224</v>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>226</v>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>228</v>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="70"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="73"/>
     </row>
     <row r="8">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>231</v>
+      <c r="B8" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="72"/>
-      <c r="B9" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>233</v>
+      <c r="A9" s="75"/>
+      <c r="B9" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="72"/>
-      <c r="B10" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>235</v>
+      <c r="A10" s="75"/>
+      <c r="B10" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="72"/>
-      <c r="B11" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>237</v>
+      <c r="A11" s="75"/>
+      <c r="B11" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="72"/>
-      <c r="B12" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>239</v>
+      <c r="A12" s="75"/>
+      <c r="B12" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="72"/>
-      <c r="B13" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>241</v>
+      <c r="A13" s="75"/>
+      <c r="B13" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="72"/>
-      <c r="B14" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>243</v>
+      <c r="A14" s="75"/>
+      <c r="B14" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="69"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="72"/>
     </row>
     <row r="16">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>246</v>
+      <c r="B16" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="72"/>
-      <c r="B17" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>248</v>
+      <c r="A17" s="75"/>
+      <c r="B17" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="72"/>
-      <c r="B18" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" s="73"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="76"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="73"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="76"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="73"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="76"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="73"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="76"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="73"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="76"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="73"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="76"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>256</v>
+      <c r="B24" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="67" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>258</v>
+      <c r="A25" s="75"/>
+      <c r="B25" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>260</v>
+      <c r="A26" s="75"/>
+      <c r="B26" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="B27" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>263</v>
+      <c r="A27" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="77" t="s">
-        <v>264</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="79"/>
+      <c r="A28" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="82"/>
     </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
@@ -6857,6 +10171,778 @@
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
     <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
